--- a/src/main/resources/excel/strings_template.xlsx
+++ b/src/main/resources/excel/strings_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA3DF0F-28CD-47BF-A365-8912C9E9D11D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8A079A-834F-4FB4-9715-104577516790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Strings Demo</t>
-  </si>
-  <si>
-    <t>${String}</t>
   </si>
 </sst>
 </file>
@@ -423,7 +420,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,11 +433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
